--- a/va_facility_data_2025-02-20/Tinton Falls VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Tinton%20Falls%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Tinton Falls VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Tinton%20Falls%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R15e1aa9fa85941fb9997b07c5bc2009d"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra5d8d802ed844009a2b984823102ec1e"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4f86be2c09e94105bd4910ddf36301dc"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R24bfbf0e0a85495eb8936f12f46fc22c"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2c42d270cb6a40d58c2378c90c749e31"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R9cfcce59953145fb81ce3c83a714c2ea"/>
   </x:sheets>
 </x:workbook>
 </file>
